--- a/TestHorse/bin/Debug/跑法.xlsx
+++ b/TestHorse/bin/Debug/跑法.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/TestHorse/TestHorse/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD6A32A-6229-4E7A-82B8-1BEAEAC000E0}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{015E33FF-5B5A-4200-BFF6-E868C31F69B4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -477,126 +477,126 @@
     </row>
     <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0629999999999999</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.95</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.86</v>
-      </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>0.98</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.96199999999999997</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="F3" s="1">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="G3" s="1">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.01</v>
       </c>
       <c r="C4" s="1">
-        <v>0.97799999999999998</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D4" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.97499999999999998</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C5" s="1">
-        <v>0.93799999999999994</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="G5" s="1">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>0.03</v>
       </c>
       <c r="C6" s="1">
-        <v>0.93100000000000005</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F6" s="1">
-        <v>0.995</v>
+        <v>0.86</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>

--- a/TestHorse/bin/Debug/跑法.xlsx
+++ b/TestHorse/bin/Debug/跑法.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{015E33FF-5B5A-4200-BFF6-E868C31F69B4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413BC627-F6BF-42E9-BA6C-47A4792D744A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>跑法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>位置意识下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序盘加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中盘加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终盘和冲刺加速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,6 +181,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -445,11 +461,11 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="5" max="8" width="13.109375" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,16 +482,25 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -492,16 +517,25 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="I2" s="1">
         <v>0.95</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>2.5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -518,16 +552,25 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="F3" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.89</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
         <v>6.5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -544,16 +587,25 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>7.5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -570,16 +622,25 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.995</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -596,12 +657,21 @@
         <v>0.95</v>
       </c>
       <c r="F6" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I6" s="1">
         <v>0.86</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>

--- a/TestHorse/bin/Debug/跑法.xlsx
+++ b/TestHorse/bin/Debug/跑法.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413BC627-F6BF-42E9-BA6C-47A4792D744A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6233DF3B-BD5B-49FB-8C8C-09E7687A414E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,6 +184,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -453,7 +457,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -529,10 +533,10 @@
         <v>0.95</v>
       </c>
       <c r="J2" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -564,10 +568,10 @@
         <v>0.89</v>
       </c>
       <c r="J3" s="1">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="K3" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -599,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="K4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -634,10 +638,10 @@
         <v>0.995</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">

--- a/TestHorse/bin/Debug/跑法.xlsx
+++ b/TestHorse/bin/Debug/跑法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6233DF3B-BD5B-49FB-8C8C-09E7687A414E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D699F25B-2E72-458F-8EF4-3AD83ED3E3BF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2400" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,6 +188,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -457,7 +461,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -506,31 +510,31 @@
     </row>
     <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>0.98</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.96199999999999997</v>
+        <v>0.95</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="H2" s="1">
-        <v>0.996</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -541,22 +545,22 @@
     </row>
     <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="1">
-        <v>0.97799999999999998</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E3" s="1">
-        <v>0.97499999999999998</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="F3" s="1">
-        <v>0.98499999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -565,118 +569,118 @@
         <v>0.996</v>
       </c>
       <c r="I3" s="1">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="J3" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01</v>
       </c>
       <c r="C4" s="1">
-        <v>0.93799999999999994</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>0.998</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.99399999999999999</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="F4" s="1">
-        <v>0.97499999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="J4" s="1">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="K4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C5" s="1">
-        <v>0.93100000000000005</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>0.94499999999999995</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="K5" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.03</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0629999999999999</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>0.96199999999999997</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1.17</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G6" s="1">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.95599999999999996</v>
+        <v>0.997</v>
       </c>
       <c r="I6" s="1">
-        <v>0.86</v>
+        <v>0.995</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
